--- a/mx/导出模板/持仓总览模板.xlsx
+++ b/mx/导出模板/持仓总览模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+  <si>
+    <t>日期</t>
+  </si>
   <si>
     <t>机组</t>
   </si>
@@ -1315,18 +1318,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CV27"/>
+  <dimension ref="A1:CW27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:CV1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:100">
+    <row r="1" ht="15.6" spans="1:101">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1342,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1627,136 +1630,139 @@
       <c r="CV1" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1770,7 +1776,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>

--- a/mx/导出模板/持仓总览模板.xlsx
+++ b/mx/导出模板/持仓总览模板.xlsx
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
-  <si>
-    <t>日期</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>机组</t>
   </si>
@@ -1318,18 +1315,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CW27"/>
+  <dimension ref="A1:CV27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:101">
+    <row r="1" ht="15.6" spans="1:100">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1339,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1630,139 +1627,136 @@
       <c r="CV1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
